--- a/inputs_qmd/tabla_glosario.xlsx
+++ b/inputs_qmd/tabla_glosario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educacionpublica-my.sharepoint.com/personal/alonso_arrano_dep_cl/Documents/2024/SAE - Anotate en la lista/00. Reporteria/code/reporte/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educacionpublica-my.sharepoint.com/personal/alonso_arrano_dep_cl/Documents/2024/SAE - Anotate en la lista/reporteria_ael/inputs_qmd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D2F04E46CFB4ACB3E20CA8550FF6C693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{570D420D-AC71-4E48-B352-8432676F02A4}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_AD4D2F04E46CFB4ACB3E20CA8550FF6C693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA7A02F7-1A9B-4762-9DAD-AE0BED92996B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -42,19 +42,19 @@
     <t>Proporción de EE que se encuentran al día con la gestión de AEL sobre el total de EE del SLEP.</t>
   </si>
   <si>
-    <t>Vacante sin asigar:</t>
-  </si>
-  <si>
     <t>Corresponde a la cantidad de estudiantes que no se les ha asignado una vacante aún cuando dicha vacante se encuentra disponible.</t>
   </si>
   <si>
-    <t>Dias sin movimiento:</t>
-  </si>
-  <si>
     <t>Corresponde a la cantidad de días transcurridos desde la última asignación de vacantes hasta la fecha de corte del reporte actual.</t>
   </si>
   <si>
-    <t>Corresponde a aquellos EE que presentan al menos 1 vacante disponible y 1 estudiante en lista de espera en cualquier nivel, y que por falta de gestión de no se ha asignado dicha vacante.</t>
+    <t>Corresponde a aquellos EE que presentan al menos 1 vacante disponible y 1 estudiante en lista de espera en cualquier nivel, y que por falta de gestión no se ha asignado dicha vacante.</t>
+  </si>
+  <si>
+    <t>Días sin movimiento:</t>
+  </si>
+  <si>
+    <t>Vacantes sin asignar:</t>
   </si>
 </sst>
 </file>
@@ -90,8 +90,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,16 +381,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,36 +398,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
